--- a/Arbeitszeitererfassung.xlsx
+++ b/Arbeitszeitererfassung.xlsx
@@ -8,38 +8,66 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_HTL\Projekt\MuscleOn-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C638B8-6F0F-4861-BD61-02A0159B55C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC35ED3-F133-4D41-91AF-38ECFA8B01CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tobias" sheetId="3" r:id="rId1"/>
+    <sheet name="William" sheetId="2" r:id="rId2"/>
+    <sheet name="Noah" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
-    <t>Noah</t>
+    <t>Datum</t>
   </si>
   <si>
-    <t>Tobias</t>
+    <t>Von</t>
   </si>
   <si>
-    <t>William</t>
+    <t>Bis</t>
+  </si>
+  <si>
+    <t>Stundensaldo</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Gesammte Arbeitszeit:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="hh:mm&quot; h&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -65,12 +93,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,27 +446,673 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730F67B5-DB20-44D6-B6BC-11B4B28AFD5E}">
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>45967</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.40625</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11">
+        <f>C2-B2-IF(ISNUMBER(D2), D2, 0)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13">
+        <f>SUM(E2:E20)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F120DD9C-1362-4D37-9354-18E917575919}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>45967</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.40625</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11">
+        <f>C2-B2-IF(ISNUMBER(D2), D2, 0)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13">
+        <f>SUM(E2:E20)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>45967</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.40625</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11">
+        <f>C2-B2-IF(ISNUMBER(D2), D2, 0)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13">
+        <f>SUM(E2:E20)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Arbeitszeitererfassung.xlsx
+++ b/Arbeitszeitererfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_HTL\Projekt\MuscleOn-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC35ED3-F133-4D41-91AF-38ECFA8B01CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB2AAF7-B7CA-487F-8484-CE2EA0301D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -60,13 +60,22 @@
   <si>
     <t>Gesammte Arbeitszeit:</t>
   </si>
+  <si>
+    <t>Logo Design</t>
+  </si>
+  <si>
+    <t>Logo Design, Projektdefinition</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="hh:mm&quot; h&quot;"/>
+    <numFmt numFmtId="164" formatCode="hh:mm&quot; h&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -150,23 +159,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,218 +454,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730F67B5-DB20-44D6-B6BC-11B4B28AFD5E}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>45967</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.40625</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11">
-        <f>C2-B2-IF(ISNUMBER(D2), D2, 0)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7" t="str">
+        <f>IF(C2-B2-IF(ISNUMBER(D2), D2, 0) &lt;&gt; 0, C2-B2-IF(ISNUMBER(D2), D2, 0), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7" t="str">
+        <f t="shared" ref="E3:E20" si="0">IF(C3-B3-IF(ISNUMBER(D3), D3, 0) &lt;&gt; 0, C3-B3-IF(ISNUMBER(D3), D3, 0), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8">
         <f>SUM(E2:E20)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -671,218 +700,240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F120DD9C-1362-4D37-9354-18E917575919}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>45967</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.40625</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11">
-        <f>C2-B2-IF(ISNUMBER(D2), D2, 0)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7" t="str">
+        <f>IF(C2-B2-IF(ISNUMBER(D2), D2, 0) &lt;&gt; 0, C2-B2-IF(ISNUMBER(D2), D2, 0), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7" t="str">
+        <f t="shared" ref="E3:E20" si="0">IF(C3-B3-IF(ISNUMBER(D3), D3, 0) &lt;&gt; 0, C3-B3-IF(ISNUMBER(D3), D3, 0), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8">
         <f>SUM(E2:E20)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -895,218 +946,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45953</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <f>IF(C2-B2-IF(ISNUMBER(D2), D2, 0) &lt;&gt; 0, C2-B2-IF(ISNUMBER(D2), D2, 0), "")</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>45964</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E20" si="0">IF(C3-B3-IF(ISNUMBER(D3), D3, 0) &lt;&gt; 0, C3-B3-IF(ISNUMBER(D3), D3, 0), "")</f>
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>45967</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B4" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C4" s="6">
         <v>0.40625</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11">
-        <f>C2-B2-IF(ISNUMBER(D2), D2, 0)</f>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8">
         <f>SUM(E2:E20)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0.21527777777777779</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitszeitererfassung.xlsx
+++ b/Arbeitszeitererfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_HTL\Projekt\MuscleOn-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SYPRET\Projekt\MuscleOn-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB2AAF7-B7CA-487F-8484-CE2EA0301D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E04CE-2C88-49D4-94C8-30A1BCAC2678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>Recherche zu EMG Sensoren</t>
+  </si>
+  <si>
+    <t>Recherche zu EMG Sensoren und bestimmen welche Sensoren für das Projekt zu kaufen sind</t>
+  </si>
+  <si>
+    <t>Zusammenbauen und Testen von EMG Sensoren mit einem Servo Arduino</t>
   </si>
 </sst>
 </file>
@@ -159,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -169,14 +178,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,11 +464,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730F67B5-DB20-44D6-B6BC-11B4B28AFD5E}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -484,48 +492,89 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7" t="str">
+      <c r="A2" s="4">
+        <v>45953</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
         <f>IF(C2-B2-IF(ISNUMBER(D2), D2, 0) &lt;&gt; 0, C2-B2-IF(ISNUMBER(D2), D2, 0), "")</f>
-        <v/>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7" t="str">
+      <c r="A3" s="4">
+        <v>45964</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E3" s="7">
         <f t="shared" ref="E3:E20" si="0">IF(C3-B3-IF(ISNUMBER(D3), D3, 0) &lt;&gt; 0, C3-B3-IF(ISNUMBER(D3), D3, 0), "")</f>
-        <v/>
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A4" s="4">
+        <v>45966</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12152777777777783</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A5" s="4">
+        <v>45967</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -679,15 +728,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="8">
         <f>SUM(E2:E20)</f>
-        <v>0</v>
+        <v>0.33680555555555564</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +755,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -730,7 +779,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -925,12 +974,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="8">
         <f>SUM(E2:E20)</f>
         <v>0</v>
@@ -948,11 +997,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -976,7 +1025,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1011,7 +1060,7 @@
       <c r="C3" s="6">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E3" s="7">
@@ -1201,12 +1250,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="8">
         <f>SUM(E2:E20)</f>
         <v>0.21527777777777779</v>
